--- a/biology/Médecine/Classe_ATC_G03/Classe_ATC_G03.xlsx
+++ b/biology/Médecine/Classe_ATC_G03/Classe_ATC_G03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC G03, dénommée « Hormones sexuelles et modulateurs de la fonction génitale », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC G03, dénommée « Hormones sexuelles et modulateurs de la fonction génitale », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G03AA Progestatifs et estrogènes en association fixe
-G03AA01 Étynodiol (en) et éthinylestradiol
+          <t>G03AA Progestatifs et estrogènes en association fixe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G03AA01 Étynodiol (en) et éthinylestradiol
 G03AA02 Quingestanol (en) et éthinylestradiol
 G03AA03 Lynestrénol (en) et éthinylestradiol
 G03AA04 Mégestrol (en) et éthinylestradiol
@@ -529,18 +546,86 @@
 G03AA13 Norelgestromine (en) et éthinylestradiol
 G03AA14 Nomégestrol (en) et estradiol
 G03AA15 Chlormadinone (en) et éthinylestradiol
-G03AA16 Diénogest (en) et éthinylestradiol
-G03AB Progestatifs et estrogènes pour administration séquentielle
-G03AB01 Mégestrol (en) et éthinylestradiol
+G03AA16 Diénogest (en) et éthinylestradiol</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>G03A Contraceptifs hormonaux à usage systémique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G03AB Progestatifs et estrogènes pour administration séquentielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>G03AB01 Mégestrol (en) et éthinylestradiol
 G03AB02 Lynestrénol (en) et éthinylestradiol
 G03AB03 Lévonorgestrel et éthinylestradiol
 G03AB04 Noréthistérone et éthinylestradiol
 G03AB05 Désogestrel (en) et éthinylestradiol
 G03AB06 Gestodène (en) et éthinylestradiol
 G03AB07 Chlormadinone (en) et éthinylestradiol
-G03AB08 Diénogest (en) et estradiol
-G03AC Progestatifs
-G03AC01 Noréthistérone
+G03AB08 Diénogest (en) et estradiol</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>G03A Contraceptifs hormonaux à usage systémique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>G03AC Progestatifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G03AC01 Noréthistérone
 G03AC02 Lynestrénol (en)
 G03AC03 Lévonorgestrel
 G03AC04 Quingestanol (en)
@@ -549,220 +634,585 @@
 G03AC07 Norgestriénone (en)
 G03AC08 Etonogestrel
 G03AC09 Désogestrel
-G03AC10 Drospirenone
-G03AD Contraception d'urgence
-G03AD01 Lévonorgestrel
+G03AC10 Drospirenone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>G03A Contraceptifs hormonaux à usage systémique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>G03AD Contraception d'urgence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>G03AD01 Lévonorgestrel
 G03AD02 Ulipristal</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>G03B Androgènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>G03BA Dérivés du 3-oxoandrostène
-G03BA01 Fluoxymestérone
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>G03BA Dérivés du 3-oxoandrostène</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>G03BA01 Fluoxymestérone
 G03BA02 Méthyltestostérone (en)
-G03BA03 Testostérone
-G03BB Dérivés de la 5-andorstan-3-one
-G03BB01 Mestérolone (en)
+G03BA03 Testostérone</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>G03B Androgènes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G03BB Dérivés de la 5-andorstan-3-one</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>G03BB01 Mestérolone (en)
 G03BB02 Androstanolone</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>G03C Estrogènes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>G03CA Estrogènes naturels et hémisynthétiques non associés
-G03CA01 Éthinylestradiol
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G03CA Estrogènes naturels et hémisynthétiques non associés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G03CA01 Éthinylestradiol
 G03CA03 Estradiol
 G03CA04 Estriol
 G03CA06 Chlorotrianisène (en)
 G03CA07 Estrone
 G03CA09 Promestriène (en)
 G03CA53 Estradiol, associations
-G03CA57 Estrogènes conjuguées
-G03CB Estrogènes synthétiques non associés
-G03CB01 Diénestrol (en)
+G03CA57 Estrogènes conjuguées</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>G03C Estrogènes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G03CB Estrogènes synthétiques non associés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>G03CB01 Diénestrol (en)
 G03CB02 Diéthylstilbestrol
 G03CB03 Méthallenestril (en)
-G03CB04 Moxestrol (en)
-G03CC Estrogènes en association avec d'autres substances
-G03CC02 Diénestrol (en)
+G03CB04 Moxestrol (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G03C Estrogènes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G03CC Estrogènes en association avec d'autres substances</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>G03CC02 Diénestrol (en)
 G03CC03 Méthallenestril (en)
 G03CC04 Estrone
 G03CC05 Diéthylstilbestrol
 G03CC06 Estriol
-G03CC07 Estrogènes conjuguées et bazédoxifène
-G03CX Autres estrogènes
-G03CX01 Tibolone</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+G03CC07 Estrogènes conjuguées et bazédoxifène</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>G03C Estrogènes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G03CX Autres estrogènes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>G03CX01 Tibolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>G03D Progestatifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>G03DA Dérivés pregnène-4
-G03DA01 Gestonorone (en)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>G03DA Dérivés pregnène-4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>G03DA01 Gestonorone (en)
 G03DA02 Médroxyprogestérone
 G03DA03 Hydroxyprogestérone
 G03DA04 Progestérone
-QG03DA90 Proligestone
-G03DB Dérivés pregnadiène
-G03DB01 Dydrogestérone (en)
+QG03DA90 Proligestone</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>G03D Progestatifs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>G03DB Dérivés pregnadiène</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>G03DB01 Dydrogestérone (en)
 G03DB02 Mégestrol (en)
 G03DB03 Médrogestone (en)
 G03DB04 Nomégestrol (en)
 G03DB05 Démégestone (en)
 G03DB06 Chlormadinone (en)
 G03DB07 Promégestone (en)
-G03DB08 Diénogest (en)
-G03DC Dérivés estrène
-G03DC01 Allylestrénol (en)
+G03DB08 Diénogest (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>G03D Progestatifs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>G03DC Dérivés estrène</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>G03DC01 Allylestrénol (en)
 G03DC02 Noréthistérone
 G03DC03 Lynestrénol (en)
 G03DC04 Éthistérone (en)
 G03DC06 Étynodiol (en)
-G03DC31 Méthylestrénolone (en)
-QG03DX Autres progestatifs
-« QFG03DX90 » Altrénogest (en)
+G03DC31 Méthylestrénolone (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>G03D Progestatifs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>QG03DX Autres progestatifs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>« QFG03DX90 » Altrénogest (en)
 « QFG03DX91 » Delmadinone (en)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>G03E Androgènes et hormones sexuelles femelles en association</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>G03EA Androgènes et estrogènes
-G03EA01 Méthyltestostérone (en) et estrogène
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>G03EA Androgènes et estrogènes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>G03EA01 Méthyltestostérone (en) et estrogène
 G03EA02 Testostérone et estrogène
-G03EA03 Prastérone et estrogène
-G03EB Androgène, progestatif et estrogène en association
-Classe vide.
-G03EK Androgènes et hormones sexuelles femelles en association avec d'autres substances
-G03EK01 Méthyltestostérone (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+G03EA03 Prastérone et estrogène</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>G03E Androgènes et hormones sexuelles femelles en association</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>G03EB Androgène, progestatif et estrogène en association</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>G03E Androgènes et hormones sexuelles femelles en association</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>G03EK Androgènes et hormones sexuelles femelles en association avec d'autres substances</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>G03EK01 Méthyltestostérone (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>G03F Progestatifs et estrogènes en association</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>G03FA Progestatifs et estrogènes en association
-G03FA01 Noréthistérone et estrogène
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>G03FA Progestatifs et estrogènes en association</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>G03FA01 Noréthistérone et estrogène
 G03FA02 Hydroxyprogestérone et estrogène
 G03FA03 Éthistérone (en) et estrogène
 G03FA04 Progestérone et estrogène
@@ -778,9 +1228,43 @@
 G03FA14 Didrogestérone (en) et estrogène
 G03FA15 Diénogest (en) et estrogène
 G03FA16 Trimégestrone et estrogène
-G03FA17 Drospirénone (en) et estrogène
-G03FB Progestatifs et estrogènes pour administration séquentielle
-G03FB01 Norgestrel (en) et estrogène
+G03FA17 Drospirénone (en) et estrogène</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>G03F Progestatifs et estrogènes en association</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>G03FB Progestatifs et estrogènes pour administration séquentielle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>G03FB01 Norgestrel (en) et estrogène
 G03FB02 Lynestrénol (en) et estrogène
 G03FB03 Chlormadinone (en) et estrogène
 G03FB04 Mégestrol (en) et estrogène
@@ -795,34 +1279,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>G03G Gonadotrophines et autres stimulants de l'ovulation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>G03GA Gonadotrophines
-G03GA01 Gonadotrophine chorionique
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>G03GA Gonadotrophines</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>G03GA01 Gonadotrophine chorionique
 G03GA02 Gonadotrophine ménopausique humaine
 G03GA03 Gonadotrophine sérique
 G03GA04 Urofollitropine (en)
@@ -834,85 +1323,231 @@
 G03GA10 Follitropine delta
 G03GA30 Gonadotrophines, associations
 « QG03GA90 » Follitropine (en)
-QG03GA99 Gonadotrophines, associations
-G03GB Stimulants synthétiques de l'ovulation
-G03GB01 Cyclofénil (en)
+QG03GA99 Gonadotrophines, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>G03G Gonadotrophines et autres stimulants de l'ovulation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>G03GB Stimulants synthétiques de l'ovulation</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>G03GB01 Cyclofénil (en)
 G03GB02 Clomifène
 G03GB03 Épimestrol (en)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>G03H Anti-androgènes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>G03HA Anti-androgènes non associés
-G03HA01 Cyprotérone
-G03HB Anti-androgènes et estrogènes
-G03HB01 Cyprotérone et estrogène</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>G03HA Anti-androgènes non associés</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>G03HA01 Cyprotérone</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>G03H Anti-androgènes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>G03HB Anti-androgènes et estrogènes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>G03HB01 Cyprotérone et estrogène</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>G03X Autres hormones sexuelles et modulateurs de la fonction génitale</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>G03XA Antigonadotrophines et analogues
-G03XA01 Danazol
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>G03XA Antigonadotrophines et analogues</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>G03XA01 Danazol
 G03XA02 Gestrinone (en)
 QG03XA90 Anti-Pmsg
-QG03XA91 Analogue d'hormone de libération des gonadotrophines hypophysaires, conjugué
-G03XB Antiprogestatifs
-G03XB01 Mifépristone
+QG03XA91 Analogue d'hormone de libération des gonadotrophines hypophysaires, conjugué</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>G03X Autres hormones sexuelles et modulateurs de la fonction génitale</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>G03XB Antiprogestatifs</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>G03XB01 Mifépristone
 G03XB02 Ulipristal
 G03XB51 Mifépristone, associations
-QG03XB90 Aglepristone
-G03XC Modulateurs sélectifs des récepteurs aux estrogènes
-G03XC01 Raloxifène
+QG03XB90 Aglepristone</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>G03X Autres hormones sexuelles et modulateurs de la fonction génitale</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>G03XC Modulateurs sélectifs des récepteurs aux estrogènes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>G03XC01 Raloxifène
 G03XC02 Bazédoxifène
 G03XC03 Lasofoxifène (en)
 G03XC04 Orméloxifène (en)
